--- a/CURRENT WORK/SALT WORK - CODES/N = 4/CaCl2 - Done/Test_excelsheet for CaCl2 n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/CaCl2 - Done/Test_excelsheet for CaCl2 n=4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\FYP\Current Work\SALT WORK\N = 4\CaCl2 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\CaCl2 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A952F1-B408-443C-A205-4CF4ABBDEC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D4EE6E-48D6-4122-99AC-078AF9143719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" activeTab="1" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="752" firstSheet="1" activeTab="1" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="New experimental Values" sheetId="4" r:id="rId1"/>
@@ -679,22 +679,38 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Parity plot for CaCl2 n=4</a:t>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t>Fig 16. Parity plot for CaCl</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t> n=4</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24962222222222222"/>
+          <c:y val="0.89070995370370365"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -708,11 +724,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -723,7 +739,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14369782692142644"/>
+          <c:y val="7.6517489906612501E-2"/>
+          <c:w val="0.81437979879146616"/>
+          <c:h val="0.63017828245135721"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1425,11 +1451,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1454,11 +1480,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1485,11 +1511,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1515,11 +1541,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1544,11 +1570,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1575,11 +1601,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1632,7 +1658,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1667,34 +1698,38 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Temperature vs </a:t>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t>Fig 15. Temperature vs Ø for CaCl</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN">
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Ø</a:t>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>2</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t> for CaCl2 n=4</a:t>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t> n=4</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2026671296296296"/>
+          <c:y val="0.91134259259259254"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1708,11 +1743,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -3547,24 +3582,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1200">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-IN"/>
                   <a:t>Ø</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3581,11 +3611,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -3613,11 +3643,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3643,11 +3673,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -3672,11 +3702,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -3703,11 +3733,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3735,9 +3765,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16924888205637914"/>
-          <c:y val="0.17880567935867336"/>
-          <c:w val="0.28004066738935929"/>
+          <c:x val="0.17806828703703703"/>
+          <c:y val="0.12000949074074073"/>
+          <c:w val="0.34471666666666667"/>
           <c:h val="0.1274187385632165"/>
         </c:manualLayout>
       </c:layout>
@@ -3756,11 +3786,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -3800,7 +3830,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -17021,13 +17056,13 @@
       <xdr:col>50</xdr:col>
       <xdr:colOff>361042</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>128635</xdr:rowOff>
+      <xdr:rowOff>128634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>176107</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>413842</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>67134</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17057,15 +17092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17080,7 +17115,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39761160" y="2636520"/>
+          <a:off x="39608760" y="2392680"/>
           <a:ext cx="1234440" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17131,16 +17166,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17155,7 +17190,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39867840" y="2720340"/>
+          <a:off x="39761160" y="2476500"/>
           <a:ext cx="106680" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -17195,15 +17230,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17218,7 +17253,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39837360" y="2956560"/>
+          <a:off x="39715440" y="2727960"/>
           <a:ext cx="213360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -17249,12 +17284,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.11049</cdr:x>
-      <cdr:y>0.16176</cdr:y>
+      <cdr:x>0.14577</cdr:x>
+      <cdr:y>0.07958</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.95774</cdr:x>
-      <cdr:y>0.83168</cdr:y>
+      <cdr:x>0.95536</cdr:x>
+      <cdr:y>0.70468</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -17269,8 +17304,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="597627" y="523058"/>
-          <a:ext cx="4582885" cy="2166257"/>
+          <a:off x="629717" y="343806"/>
+          <a:ext cx="3497421" cy="2700412"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -17653,10 +17688,10 @@
       <xdr:rowOff>41909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>7120</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>42729</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>566259</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>103255</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22783,8 +22818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047C7D3F-5D75-4052-8CB1-7588824F9D31}">
   <dimension ref="A1:BD173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BJ14" sqref="BJ14"/>
+    <sheetView tabSelected="1" topLeftCell="AT10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BH14" sqref="BH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50808,8 +50843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA1C9C-9B9C-4B22-9640-19860B1C7174}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView topLeftCell="A7" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52927,14 +52962,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -53163,6 +53190,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF512C7-F629-44C7-ACF3-334FC72973D0}">
   <ds:schemaRefs>
@@ -53172,23 +53207,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43649138-A2D4-479B-A33F-938C4CC7EA61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E4939B2-3627-4E93-BC4B-BD461E5F2223}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -53205,4 +53223,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43649138-A2D4-479B-A33F-938C4CC7EA61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 4/CaCl2 - Done/Test_excelsheet for CaCl2 n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/CaCl2 - Done/Test_excelsheet for CaCl2 n=4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\CaCl2 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 4/CaCl2 - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD26FE34-13D1-4A8A-9A82-9FFAE06B490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FD26FE34-13D1-4A8A-9A82-9FFAE06B490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{496E07C9-ED81-4345-8786-B36CEAEB5CDB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="752" firstSheet="1" activeTab="4" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="752" firstSheet="1" activeTab="1" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="New experimental Values" sheetId="4" r:id="rId1"/>
@@ -678,72 +678,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1320"/>
-              <a:t>Fig 16. Parity plot for CaCl</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="900"/>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1320"/>
-              <a:t> n=4</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24962222222222222"/>
-          <c:y val="0.89070995370370365"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -19882,24 +19817,24 @@
       <selection activeCell="AI11" sqref="AI11:AI31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>31</v>
       </c>
@@ -19960,7 +19895,7 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -20071,7 +20006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1E-3</v>
       </c>
@@ -20182,7 +20117,7 @@
         <v>0.95520000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.01</v>
       </c>
@@ -20293,7 +20228,7 @@
         <v>0.88929999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -20404,7 +20339,7 @@
         <v>0.85580000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.05</v>
       </c>
@@ -20515,7 +20450,7 @@
         <v>0.83379999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -20626,7 +20561,7 @@
         <v>0.82430000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -20737,7 +20672,7 @@
         <v>0.81989999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.2</v>
       </c>
@@ -20848,7 +20783,7 @@
         <v>0.8196</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.3</v>
       </c>
@@ -20959,7 +20894,7 @@
         <v>0.82930000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.4</v>
       </c>
@@ -21070,7 +21005,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -21181,7 +21116,7 @@
         <v>0.85929999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.6</v>
       </c>
@@ -21292,7 +21227,7 @@
         <v>0.87749999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.7</v>
       </c>
@@ -21403,7 +21338,7 @@
         <v>0.8972</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.8</v>
       </c>
@@ -21514,7 +21449,7 @@
         <v>0.91830000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.9</v>
       </c>
@@ -21625,7 +21560,7 @@
         <v>0.9405</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -21736,7 +21671,7 @@
         <v>0.96360000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1.2</v>
       </c>
@@ -21847,7 +21782,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1.4</v>
       </c>
@@ -21958,7 +21893,7 @@
         <v>1.0629999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1.6</v>
       </c>
@@ -22069,7 +22004,7 @@
         <v>1.117</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1.8</v>
       </c>
@@ -22180,7 +22115,7 @@
         <v>1.171</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -22291,7 +22226,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2.25</v>
       </c>
@@ -22402,7 +22337,7 @@
         <v>1.298</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2.5</v>
       </c>
@@ -22513,7 +22448,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2.75</v>
       </c>
@@ -22624,7 +22559,7 @@
         <v>1.4430000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -22735,7 +22670,7 @@
         <v>1.5149999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>3.25</v>
       </c>
@@ -22846,7 +22781,7 @@
         <v>1.587</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>3.5</v>
       </c>
@@ -22957,7 +22892,7 @@
         <v>1.6579999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>3.75</v>
       </c>
@@ -23068,7 +23003,7 @@
         <v>1.7270000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -23179,7 +23114,7 @@
         <v>1.794</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4.25</v>
       </c>
@@ -23290,7 +23225,7 @@
         <v>1.8580000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>4.5</v>
       </c>
@@ -23401,7 +23336,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>4.75</v>
       </c>
@@ -23512,7 +23447,7 @@
         <v>1.9770000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -23623,7 +23558,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>5.5</v>
       </c>
@@ -23734,7 +23669,7 @@
         <v>2.1230000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>6</v>
       </c>
@@ -23845,7 +23780,7 @@
         <v>2.194</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>6.5</v>
       </c>
@@ -23956,7 +23891,7 @@
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>7</v>
       </c>
@@ -24067,7 +24002,7 @@
         <v>2.2679999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>7.5</v>
       </c>
@@ -24175,7 +24110,7 @@
         <v>2.2730000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -24283,7 +24218,7 @@
         <v>2.2610000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>8.5</v>
       </c>
@@ -24389,7 +24324,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -24504,45 +24439,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047C7D3F-5D75-4052-8CB1-7588824F9D31}">
   <dimension ref="A1:BD173"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BA16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BJ8" sqref="BJ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="5"/>
-    <col min="12" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="7.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="11.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="5"/>
-    <col min="21" max="21" width="9.109375" customWidth="1"/>
-    <col min="23" max="23" width="14.21875" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="5"/>
-    <col min="27" max="27" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="2" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" style="5"/>
+    <col min="12" max="13" width="8.90625" style="1"/>
+    <col min="14" max="14" width="7.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.90625" style="1"/>
+    <col min="16" max="16" width="11.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.54296875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.90625" style="5"/>
+    <col min="21" max="21" width="9.08984375" customWidth="1"/>
+    <col min="23" max="23" width="14.1796875" customWidth="1"/>
+    <col min="24" max="24" width="8.90625" style="5"/>
+    <col min="27" max="27" width="8.90625" style="5"/>
     <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12" style="5" customWidth="1"/>
     <col min="33" max="34" width="12" customWidth="1"/>
     <col min="35" max="35" width="12" style="7" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.21875" customWidth="1"/>
-    <col min="40" max="40" width="8.88671875" style="5"/>
-    <col min="42" max="44" width="21.5546875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13.44140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="13.1796875" customWidth="1"/>
+    <col min="40" max="40" width="8.90625" style="5"/>
+    <col min="42" max="44" width="21.54296875" style="1" customWidth="1"/>
+    <col min="46" max="46" width="13.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:56" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
@@ -24561,7 +24496,7 @@
       <c r="AI1"/>
       <c r="AN1"/>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
       <c r="J2"/>
       <c r="M2" s="4" t="s">
         <v>1</v>
@@ -24584,7 +24519,7 @@
       <c r="AI2" s="1"/>
       <c r="AN2"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="H3" s="1"/>
       <c r="J3"/>
       <c r="M3" s="4" t="s">
@@ -24608,7 +24543,7 @@
       <c r="AI3" s="1"/>
       <c r="AN3"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="J4"/>
       <c r="T4"/>
       <c r="X4"/>
@@ -24625,7 +24560,7 @@
       <c r="AI4" s="1"/>
       <c r="AN4"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="T5"/>
       <c r="X5"/>
@@ -24634,7 +24569,7 @@
       <c r="AI5"/>
       <c r="AN5"/>
     </row>
-    <row r="6" spans="1:56" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -24753,7 +24688,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.2</v>
       </c>
@@ -24897,7 +24832,7 @@
         <v>0.8639</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.3</v>
       </c>
@@ -25037,7 +24972,7 @@
         <v>0.87929999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
@@ -25189,7 +25124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.5</v>
       </c>
@@ -25343,7 +25278,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.6</v>
       </c>
@@ -25497,7 +25432,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -25651,7 +25586,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.8</v>
       </c>
@@ -25805,7 +25740,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.9</v>
       </c>
@@ -25959,7 +25894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -26121,7 +26056,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1.2</v>
       </c>
@@ -26283,7 +26218,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1.4</v>
       </c>
@@ -26445,7 +26380,7 @@
         <v>1.5999999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1.6</v>
       </c>
@@ -26607,7 +26542,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1.8</v>
       </c>
@@ -26769,7 +26704,7 @@
         <v>1.9999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -26931,7 +26866,7 @@
         <v>2.1999999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2.25</v>
       </c>
@@ -27093,7 +27028,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="22" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:53" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2.5</v>
       </c>
@@ -27251,7 +27186,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2.75</v>
       </c>
@@ -27409,7 +27344,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -27561,7 +27496,7 @@
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>3.25</v>
       </c>
@@ -27713,7 +27648,7 @@
         <v>3.2000000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>3.5</v>
       </c>
@@ -27865,7 +27800,7 @@
         <v>3.4000000000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>3.75</v>
       </c>
@@ -28017,7 +27952,7 @@
         <v>3.600000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.3</v>
       </c>
@@ -28161,7 +28096,7 @@
         <v>3.8000000000000012</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.4</v>
       </c>
@@ -28305,7 +28240,7 @@
         <v>4.0000000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.5</v>
       </c>
@@ -28449,7 +28384,7 @@
         <v>4.2000000000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.6</v>
       </c>
@@ -28593,7 +28528,7 @@
         <v>4.4000000000000012</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.7</v>
       </c>
@@ -28737,7 +28672,7 @@
         <v>4.6000000000000014</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.8</v>
       </c>
@@ -28877,7 +28812,7 @@
         <v>0.99070000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.9</v>
       </c>
@@ -29017,7 +28952,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -29165,7 +29100,7 @@
         <v>1.046</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1.2</v>
       </c>
@@ -29313,7 +29248,7 @@
         <v>1.107</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1.4</v>
       </c>
@@ -29461,7 +29396,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1.6</v>
       </c>
@@ -29609,7 +29544,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1.8</v>
       </c>
@@ -29757,7 +29692,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -29905,7 +29840,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2.25</v>
       </c>
@@ -30053,7 +29988,7 @@
         <v>1.4770000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2.5</v>
       </c>
@@ -30201,7 +30136,7 @@
         <v>1.575</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2.75</v>
       </c>
@@ -30349,7 +30284,7 @@
         <v>1.677</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -30497,7 +30432,7 @@
         <v>1.7809999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>3.25</v>
       </c>
@@ -30645,7 +30580,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>3.5</v>
       </c>
@@ -30793,7 +30728,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>3.75</v>
       </c>
@@ -30941,7 +30876,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0.2</v>
       </c>
@@ -31081,7 +31016,7 @@
         <v>0.85970000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>0.3</v>
       </c>
@@ -31221,7 +31156,7 @@
         <v>0.87490000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>0.4</v>
       </c>
@@ -31361,7 +31296,7 @@
         <v>0.89359999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>0.5</v>
       </c>
@@ -31501,7 +31436,7 @@
         <v>0.91479999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>0.6</v>
       </c>
@@ -31641,7 +31576,7 @@
         <v>0.93779999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>0.7</v>
       </c>
@@ -31781,7 +31716,7 @@
         <v>0.96240000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>0.8</v>
       </c>
@@ -31921,7 +31856,7 @@
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>0.9</v>
       </c>
@@ -32061,7 +31996,7 @@
         <v>1.016</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -32209,7 +32144,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>1.2</v>
       </c>
@@ -32357,7 +32292,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>1.4</v>
       </c>
@@ -32505,7 +32440,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1.6</v>
       </c>
@@ -32653,7 +32588,7 @@
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1.8</v>
       </c>
@@ -32801,7 +32736,7 @@
         <v>1.3029999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -32949,7 +32884,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2.25</v>
       </c>
@@ -33097,7 +33032,7 @@
         <v>1.4690000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2.5</v>
       </c>
@@ -33237,7 +33172,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2.75</v>
       </c>
@@ -33385,7 +33320,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -33533,7 +33468,7 @@
         <v>1.768</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>3.25</v>
       </c>
@@ -33681,7 +33616,7 @@
         <v>1.871</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>3.5</v>
       </c>
@@ -33829,7 +33764,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>3.75</v>
       </c>
@@ -33977,7 +33912,7 @@
         <v>2.0790000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>0.2</v>
       </c>
@@ -34117,7 +34052,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>0.3</v>
       </c>
@@ -34257,7 +34192,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>0.4</v>
       </c>
@@ -34397,7 +34332,7 @@
         <v>0.89159999999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>0.5</v>
       </c>
@@ -34537,7 +34472,7 @@
         <v>0.91259999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>0.6</v>
       </c>
@@ -34677,7 +34612,7 @@
         <v>0.93540000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>0.7</v>
       </c>
@@ -34817,7 +34752,7 @@
         <v>0.95979999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>0.8</v>
       </c>
@@ -34957,7 +34892,7 @@
         <v>0.98560000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>0.9</v>
       </c>
@@ -35097,7 +35032,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -35245,7 +35180,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>1.2</v>
       </c>
@@ -35393,7 +35328,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>1.4</v>
       </c>
@@ -35541,7 +35476,7 @@
         <v>1.1619999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>1.6</v>
       </c>
@@ -35689,7 +35624,7 @@
         <v>1.228</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>1.8</v>
       </c>
@@ -35837,7 +35772,7 @@
         <v>1.2969999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -35985,7 +35920,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2.25</v>
       </c>
@@ -36133,7 +36068,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2.5</v>
       </c>
@@ -36281,7 +36216,7 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2.75</v>
       </c>
@@ -36429,7 +36364,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -36577,7 +36512,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>3.25</v>
       </c>
@@ -36725,7 +36660,7 @@
         <v>1.8540000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>3.5</v>
       </c>
@@ -36873,7 +36808,7 @@
         <v>1.956</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>3.75</v>
       </c>
@@ -37021,7 +36956,7 @@
         <v>2.0579999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>0.2</v>
       </c>
@@ -37161,7 +37096,7 @@
         <v>0.85419999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>0.3</v>
       </c>
@@ -37301,7 +37236,7 @@
         <v>0.86870000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>0.4</v>
       </c>
@@ -37441,7 +37376,7 @@
         <v>0.88690000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>0.5</v>
       </c>
@@ -37581,7 +37516,7 @@
         <v>0.90739999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>0.6</v>
       </c>
@@ -37721,7 +37656,7 @@
         <v>0.92979999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>0.7</v>
       </c>
@@ -37861,7 +37796,7 @@
         <v>0.95369999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>0.8</v>
       </c>
@@ -38001,7 +37936,7 @@
         <v>0.97889999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>0.9</v>
       </c>
@@ -38141,7 +38076,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -38289,7 +38224,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1.2</v>
       </c>
@@ -38437,7 +38372,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1.4</v>
       </c>
@@ -38585,7 +38520,7 @@
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1.6</v>
       </c>
@@ -38733,7 +38668,7 @@
         <v>1.216</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1.8</v>
       </c>
@@ -38881,7 +38816,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -39029,7 +38964,7 @@
         <v>1.351</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>2.25</v>
       </c>
@@ -39177,7 +39112,7 @@
         <v>1.4410000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>2.5</v>
       </c>
@@ -39325,7 +39260,7 @@
         <v>1.532</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>2.75</v>
       </c>
@@ -39473,7 +39408,7 @@
         <v>1.627</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>3</v>
       </c>
@@ -39621,7 +39556,7 @@
         <v>1.722</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>3.25</v>
       </c>
@@ -39769,7 +39704,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>3.5</v>
       </c>
@@ -39917,7 +39852,7 @@
         <v>1.9159999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>3.75</v>
       </c>
@@ -40065,7 +40000,7 @@
         <v>2.0129999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>0.2</v>
       </c>
@@ -40205,7 +40140,7 @@
         <v>0.8498</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>0.3</v>
       </c>
@@ -40345,7 +40280,7 @@
         <v>0.86370000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>0.4</v>
       </c>
@@ -40485,7 +40420,7 @@
         <v>0.88139999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>0.5</v>
       </c>
@@ -40625,7 +40560,7 @@
         <v>0.90129999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>0.6</v>
       </c>
@@ -40765,7 +40700,7 @@
         <v>0.92310000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>0.7</v>
       </c>
@@ -40905,7 +40840,7 @@
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>0.8</v>
       </c>
@@ -41045,7 +40980,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>0.9</v>
       </c>
@@ -41193,7 +41128,7 @@
         <v>0.99680000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -41341,7 +41276,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>1.2</v>
       </c>
@@ -41489,7 +41424,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>1.4</v>
       </c>
@@ -41637,7 +41572,7 @@
         <v>1.139</v>
       </c>
     </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>1.6</v>
       </c>
@@ -41785,7 +41720,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>1.8</v>
       </c>
@@ -41933,7 +41868,7 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -42081,7 +42016,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>2.25</v>
       </c>
@@ -42229,7 +42164,7 @@
         <v>1.419</v>
       </c>
     </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>2.5</v>
       </c>
@@ -42377,7 +42312,7 @@
         <v>1.5069999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>2.75</v>
       </c>
@@ -42525,7 +42460,7 @@
         <v>1.5980000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>3</v>
       </c>
@@ -42673,7 +42608,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>3.25</v>
       </c>
@@ -42821,7 +42756,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>3.5</v>
       </c>
@@ -42969,7 +42904,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>3.75</v>
       </c>
@@ -43117,7 +43052,7 @@
         <v>1.9670000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>0.2</v>
       </c>
@@ -43257,7 +43192,7 @@
         <v>0.8448</v>
       </c>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>0.3</v>
       </c>
@@ -43397,7 +43332,7 @@
         <v>0.85809999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>0.4</v>
       </c>
@@ -43537,7 +43472,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>0.5</v>
       </c>
@@ -43677,7 +43612,7 @@
         <v>0.89439999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>0.6</v>
       </c>
@@ -43817,7 +43752,7 @@
         <v>0.91549999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>0.7</v>
       </c>
@@ -43957,7 +43892,7 @@
         <v>0.93810000000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>0.8</v>
       </c>
@@ -44097,7 +44032,7 @@
         <v>0.96209999999999996</v>
       </c>
     </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>0.9</v>
       </c>
@@ -44237,7 +44172,7 @@
         <v>0.98709999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -44385,7 +44320,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>1.2</v>
       </c>
@@ -44533,7 +44468,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>1.4</v>
       </c>
@@ -44681,7 +44616,7 @@
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>1.6</v>
       </c>
@@ -44829,7 +44764,7 @@
         <v>1.1859999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>1.8</v>
       </c>
@@ -44977,7 +44912,7 @@
         <v>1.248</v>
       </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -45125,7 +45060,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>2.25</v>
       </c>
@@ -45273,7 +45208,7 @@
         <v>1.3959999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>2.5</v>
       </c>
@@ -45421,7 +45356,7 @@
         <v>1.4810000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>2.75</v>
       </c>
@@ -45569,7 +45504,7 @@
         <v>1.5680000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>3</v>
       </c>
@@ -45717,7 +45652,7 @@
         <v>1.655</v>
       </c>
     </row>
-    <row r="150" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>3.25</v>
       </c>
@@ -45865,7 +45800,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>3.5</v>
       </c>
@@ -46013,7 +45948,7 @@
         <v>1.8320000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>3.75</v>
       </c>
@@ -46161,7 +46096,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>0.2</v>
       </c>
@@ -46301,7 +46236,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>0.3</v>
       </c>
@@ -46441,7 +46376,7 @@
         <v>0.8518</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>0.4</v>
       </c>
@@ -46581,7 +46516,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>0.5</v>
       </c>
@@ -46721,7 +46656,7 @@
         <v>0.88660000000000005</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>0.6</v>
       </c>
@@ -46861,7 +46796,7 @@
         <v>0.90710000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>0.7</v>
       </c>
@@ -47001,7 +46936,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>0.8</v>
       </c>
@@ -47141,7 +47076,7 @@
         <v>0.95220000000000005</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>0.9</v>
       </c>
@@ -47281,7 +47216,7 @@
         <v>0.97650000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>1</v>
       </c>
@@ -47429,7 +47364,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>1.2</v>
       </c>
@@ -47577,7 +47512,7 @@
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>1.4</v>
       </c>
@@ -47725,7 +47660,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="164" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>1.6</v>
       </c>
@@ -47873,7 +47808,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="165" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>1.8</v>
       </c>
@@ -48021,7 +47956,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="166" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -48169,7 +48104,7 @@
         <v>1.292</v>
       </c>
     </row>
-    <row r="167" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>2.25</v>
       </c>
@@ -48317,7 +48252,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>2.5</v>
       </c>
@@ -48465,7 +48400,7 @@
         <v>1.454</v>
       </c>
     </row>
-    <row r="169" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>2.75</v>
       </c>
@@ -48613,7 +48548,7 @@
         <v>1.5369999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>3</v>
       </c>
@@ -48761,7 +48696,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="171" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>3.25</v>
       </c>
@@ -48909,7 +48844,7 @@
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>3.5</v>
       </c>
@@ -49057,7 +48992,7 @@
         <v>1.788</v>
       </c>
     </row>
-    <row r="173" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>3.75</v>
       </c>
@@ -49219,13 +49154,13 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>1</v>
       </c>
@@ -49233,7 +49168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>46</v>
       </c>
@@ -49242,7 +49177,7 @@
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -49253,7 +49188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1.64413171449595E-2</v>
       </c>
@@ -49265,7 +49200,7 @@
         <v>8.8704358092670042E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.43253311258278199</v>
       </c>
@@ -49277,7 +49212,7 @@
         <v>2.2823699760963937E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1.0052198307578999</v>
       </c>
@@ -49289,7 +49224,7 @@
         <v>5.1487057077629544E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>1.4732799852832901</v>
       </c>
@@ -49301,7 +49236,7 @@
         <v>7.3694219407179337E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>1.99353844738778</v>
       </c>
@@ -49313,7 +49248,7 @@
         <v>9.7188616953497134E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2.4614836276674001</v>
       </c>
@@ -49325,7 +49260,7 @@
         <v>0.11732523240541651</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2.8251471670345798</v>
       </c>
@@ -49337,7 +49272,7 @@
         <v>0.13236466540735028</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>3.13695732155997</v>
       </c>
@@ -49349,7 +49284,7 @@
         <v>0.14485746444575009</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>3.5006208609271501</v>
       </c>
@@ -49361,7 +49296,7 @@
         <v>0.15898082121206311</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>3.6038677336276601</v>
       </c>
@@ -49373,7 +49308,7 @@
         <v>0.16290592219806463</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>3.96753127299485</v>
       </c>
@@ -49385,7 +49320,7 @@
         <v>0.17644412023370443</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>3.96810614422369</v>
       </c>
@@ -49397,7 +49332,7 @@
         <v>0.17646517446428464</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>4.1250459896983003</v>
       </c>
@@ -49409,7 +49344,7 @@
         <v>0.18217299613766277</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>4.3338392200147098</v>
       </c>
@@ -49421,7 +49356,7 @@
         <v>0.18964516789036034</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>4.3346440397350996</v>
       </c>
@@ -49433,7 +49368,7 @@
         <v>0.18967370615274448</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>4.5435522442972696</v>
       </c>
@@ -49445,7 +49380,7 @@
         <v>0.19701406222476264</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>4.7006070640176603</v>
       </c>
@@ -49457,7 +49392,7 @@
         <v>0.20244548173481314</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>4.8054635761589397</v>
       </c>
@@ -49469,7 +49404,7 @@
         <v>0.20603100948424874</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>5.0146017292126501</v>
       </c>
@@ -49481,7 +49416,7 @@
         <v>0.21308698873861018</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>5.0676048565121397</v>
       </c>
@@ -49493,7 +49428,7 @@
         <v>0.21485535269763475</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>5.3288263428991902</v>
       </c>
@@ -49505,7 +49440,7 @@
         <v>0.22345575047730468</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>5.6420161883738</v>
       </c>
@@ -49517,7 +49452,7 @@
         <v>0.2335219918276184</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>5.9030077262693101</v>
       </c>
@@ -49529,7 +49464,7 @@
         <v>0.24171330108940928</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>6.2683958793230303</v>
       </c>
@@ -49541,7 +49476,7 @@
         <v>0.25289133527119789</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>6.4773040838852101</v>
       </c>
@@ -49553,7 +49488,7 @@
         <v>0.25913546382995689</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>7.0510255702722597</v>
       </c>
@@ -49565,7 +49500,7 @@
         <v>0.27575875212273737</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>7.2594738778513603</v>
       </c>
@@ -49577,7 +49512,7 @@
         <v>0.28161517647408635</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>7.52023546725533</v>
       </c>
@@ -49589,7 +49524,7 @@
         <v>0.28880934438583261</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>7.9369021339219996</v>
       </c>
@@ -49601,7 +49536,7 @@
         <v>0.30001043030815761</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>8.45819536423841</v>
       </c>
@@ -49613,7 +49548,7 @@
         <v>0.3135369044946853</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>8.77069536423841</v>
       </c>
@@ -49625,7 +49560,7 @@
         <v>0.32139787543606363</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>9.0836552612214891</v>
       </c>
@@ -49637,7 +49572,7 @@
         <v>0.3290920249146787</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>9.1878219278881499</v>
       </c>
@@ -49649,7 +49584,7 @@
         <v>0.33161441676718256</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>9.5528651582045594</v>
       </c>
@@ -49661,7 +49596,7 @@
         <v>0.34030617329796392</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>10.0741583885209</v>
       </c>
@@ -49673,7 +49608,7 @@
         <v>0.35233351607035707</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>10.491055003679101</v>
       </c>
@@ -49685,7 +49620,7 @@
         <v>0.36164113187157093</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>11.0123482339955</v>
       </c>
@@ -49697,7 +49632,7 @@
         <v>0.37290975325192577</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>11.533411515820401</v>
       </c>
@@ -49709,7 +49644,7 @@
         <v>0.38378272219593601</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>11.690121412803499</v>
       </c>
@@ -49721,7 +49656,7 @@
         <v>0.38697940189894225</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>11.950768027961701</v>
       </c>
@@ -49733,7 +49668,7 @@
         <v>0.39222342832777096</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>12.0558544885945</v>
       </c>
@@ -49746,7 +49681,7 @@
         <v>0.39431240293267006</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>12.1616307947019</v>
       </c>
@@ -49758,7 +49693,7 @@
         <v>0.39640063907581174</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>12.5795621780721</v>
       </c>
@@ -49770,7 +49705,7 @@
         <v>0.40451249389970351</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>12.945640176600399</v>
       </c>
@@ -49782,7 +49717,7 @@
         <v>0.41144084931813785</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>13.5203964311994</v>
       </c>
@@ -49794,7 +49729,7 @@
         <v>0.42199919855021301</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>13.9906410963944</v>
       </c>
@@ -49806,7 +49741,7 @@
         <v>0.4303599743001808</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>14.7215323767476</v>
       </c>
@@ -49818,7 +49753,7 @@
         <v>0.44288537412691403</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>15.138658940397301</v>
       </c>
@@ -49830,7 +49765,7 @@
         <v>0.44978991357420123</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>16.077308682855001</v>
       </c>
@@ -49842,7 +49777,7 @@
         <v>0.46471814618777785</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>16.599291758646</v>
       </c>
@@ -49854,7 +49789,7 @@
         <v>0.47267445286700427</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>17.433659860191302</v>
       </c>
@@ -49866,7 +49801,7 @@
         <v>0.48491247669474113</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>18.1631714495952</v>
       </c>
@@ -49878,7 +49813,7 @@
         <v>0.49515634272531867</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>19.1019361662987</v>
       </c>
@@ -49890,7 +49825,7 @@
         <v>0.50775399516922415</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>19.6228844738778</v>
       </c>
@@ -49902,7 +49837,7 @@
         <v>0.51447725920805065</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>20.0395511405445</v>
       </c>
@@ -49914,7 +49849,7 @@
         <v>0.5197239207703499</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>21.968014164827</v>
       </c>
@@ -49926,7 +49861,7 @@
         <v>0.54260053180260925</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>22.749379139072801</v>
       </c>
@@ -49938,7 +49873,7 @@
         <v>0.55126091781629694</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>22.957712472406101</v>
       </c>
@@ -49950,7 +49885,7 @@
         <v>0.55351491502276229</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>23.4790057027225</v>
       </c>
@@ -49963,7 +49898,7 @@
         <v>0.55905690009335263</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>24.208287343635</v>
       </c>
@@ -49975,7 +49910,7 @@
         <v>0.56658312867422123</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>25.042425496688701</v>
       </c>
@@ -49987,7 +49922,7 @@
         <v>0.57488252522595329</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>26.605960264900599</v>
       </c>
@@ -49999,7 +49934,7 @@
         <v>0.5896125779668151</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>27.336506622516499</v>
       </c>
@@ -50011,7 +49946,7 @@
         <v>0.59615072804863534</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>27.7014348785872</v>
       </c>
@@ -50023,7 +49958,7 @@
         <v>0.59933930786528788</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>27.9103430831493</v>
       </c>
@@ -50035,7 +49970,7 @@
         <v>0.60114209395447904</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>28.3283894407652</v>
       </c>
@@ -50047,7 +49982,7 @@
         <v>0.60470137037403593</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>29.1631024650478</v>
       </c>
@@ -50059,7 +49994,7 @@
         <v>0.6116214563070117</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>29.476177336276599</v>
       </c>
@@ -50071,7 +50006,7 @@
         <v>0.61415489381274313</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>29.6847406181015</v>
       </c>
@@ -50083,7 +50018,7 @@
         <v>0.61582434776801231</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>29.790516924208902</v>
       </c>
@@ -50095,7 +50030,7 @@
         <v>0.61666552956800236</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>28.279525386313399</v>
       </c>
@@ -50107,7 +50042,7 @@
         <v>0.60428862034965369</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>8.5599475717439297</v>
       </c>
@@ -50119,7 +50054,7 @@
         <v>0.31611641306455429</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>8.7688557763061095</v>
       </c>
@@ -50131,7 +50066,7 @@
         <v>0.32135212723524031</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>8.9771891096394398</v>
       </c>
@@ -50143,7 +50078,7 @@
         <v>0.32649420160570913</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>9.4466289551140505</v>
       </c>
@@ -50155,7 +50090,7 @@
         <v>0.3378000764709348</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>9.7594738778513594</v>
       </c>
@@ -50167,7 +50102,7 @@
         <v>0.34512612285390565</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>10.020580389992601</v>
       </c>
@@ -50179,7 +50114,7 @@
         <v>0.35111761664641056</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>10.1770603384841</v>
       </c>
@@ -50191,7 +50126,7 @@
         <v>0.35465603914801597</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>10.4377069536423</v>
       </c>
@@ -50203,7 +50138,7 @@
         <v>0.36046503932901586</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>10.959115158204501</v>
       </c>
@@ -50215,7 +50150,7 @@
         <v>0.37177730337487552</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>11.4800634657836</v>
       </c>
@@ -50227,7 +50162,7 @@
         <v>0.38268687072578866</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>11.689086644591599</v>
       </c>
@@ -50239,7 +50174,7 @@
         <v>0.38695840274244747</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>7.8307809050772601</v>
       </c>
@@ -50251,7 +50186,7 @@
         <v>0.29719123758048771</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>7.8310108535687997</v>
       </c>
@@ -50263,7 +50198,7 @@
         <v>0.29719737088983367</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>11.4800634657836</v>
       </c>
@@ -50275,7 +50210,7 @@
         <v>0.38268687072578866</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>11.689086644591599</v>
       </c>
@@ -50287,7 +50222,7 @@
         <v>0.38695840274244747</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>7.8307809050772601</v>
       </c>
@@ -50299,7 +50234,7 @@
         <v>0.29719123758048771</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>7.8310108535687997</v>
       </c>
@@ -50325,13 +50260,13 @@
       <selection activeCell="S5" sqref="S5:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -50339,7 +50274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -50368,7 +50303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8.8704358092670042E-4</v>
       </c>
@@ -50418,7 +50353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.2823699760963937E-2</v>
       </c>
@@ -50462,7 +50397,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5.1487057077629544E-2</v>
       </c>
@@ -50512,7 +50447,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.3694219407179337E-2</v>
       </c>
@@ -50562,7 +50497,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9.7188616953497134E-2</v>
       </c>
@@ -50606,7 +50541,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.11732523240541651</v>
       </c>
@@ -50644,7 +50579,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.13236466540735028</v>
       </c>
@@ -50694,7 +50629,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.14485746444575009</v>
       </c>
@@ -50738,7 +50673,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.15898082121206311</v>
       </c>
@@ -50788,7 +50723,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.16290592219806463</v>
       </c>
@@ -50838,7 +50773,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.17644412023370443</v>
       </c>
@@ -50882,7 +50817,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.17646517446428464</v>
       </c>
@@ -50932,7 +50867,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.18217299613766277</v>
       </c>
@@ -50982,7 +50917,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.18964516789036034</v>
       </c>
@@ -51032,7 +50967,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.18967370615274448</v>
       </c>
@@ -51082,7 +51017,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.19701406222476264</v>
       </c>
@@ -51126,7 +51061,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.20244548173481314</v>
       </c>
@@ -51170,7 +51105,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.20603100948424874</v>
       </c>
@@ -51214,7 +51149,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.21308698873861018</v>
       </c>
@@ -51258,7 +51193,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.21485535269763475</v>
       </c>
@@ -51302,7 +51237,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.22345575047730468</v>
       </c>
@@ -51346,7 +51281,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.2335219918276184</v>
       </c>
@@ -51390,7 +51325,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.24171330108940928</v>
       </c>
@@ -51434,7 +51369,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.25289133527119789</v>
       </c>
@@ -51478,7 +51413,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.25913546382995689</v>
       </c>
@@ -51516,7 +51451,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.27575875212273737</v>
       </c>
@@ -51554,7 +51489,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.28161517647408635</v>
       </c>
@@ -51586,7 +51521,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.28880934438583261</v>
       </c>
@@ -51624,7 +51559,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.30001043030815761</v>
       </c>
@@ -51656,7 +51591,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.3135369044946853</v>
       </c>
@@ -51688,7 +51623,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.32139787543606363</v>
       </c>
@@ -51720,7 +51655,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.3290920249146787</v>
       </c>
@@ -51752,7 +51687,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.33161441676718256</v>
       </c>
@@ -51784,7 +51719,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.34030617329796392</v>
       </c>
@@ -51816,7 +51751,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.35233351607035707</v>
       </c>
@@ -51848,7 +51783,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.36164113187157093</v>
       </c>
@@ -51880,7 +51815,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.37290975325192577</v>
       </c>
@@ -51912,7 +51847,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.38378272219593601</v>
       </c>
@@ -51944,7 +51879,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.38697940189894225</v>
       </c>
@@ -51976,7 +51911,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.39222342832777096</v>
       </c>
@@ -52008,7 +51943,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.39431240293267006</v>
       </c>
@@ -52040,7 +51975,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.39640063907581174</v>
       </c>
@@ -52072,7 +52007,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.40451249389970351</v>
       </c>
@@ -52104,7 +52039,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.41144084931813785</v>
       </c>
@@ -52136,7 +52071,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.42199919855021301</v>
       </c>
@@ -52168,7 +52103,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.4303599743001808</v>
       </c>
@@ -52200,7 +52135,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.44288537412691403</v>
       </c>
@@ -52232,7 +52167,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.44978991357420123</v>
       </c>
@@ -52258,7 +52193,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.46471814618777785</v>
       </c>
@@ -52284,7 +52219,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.47267445286700427</v>
       </c>
@@ -52310,7 +52245,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.48491247669474113</v>
       </c>
@@ -52336,7 +52271,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.49515634272531867</v>
       </c>
@@ -52362,7 +52297,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.50775399516922415</v>
       </c>
@@ -52388,7 +52323,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.51447725920805065</v>
       </c>
@@ -52414,7 +52349,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.5197239207703499</v>
       </c>
@@ -52440,7 +52375,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.54260053180260925</v>
       </c>
@@ -52466,7 +52401,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.55126091781629694</v>
       </c>
@@ -52486,7 +52421,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.55351491502276229</v>
       </c>
@@ -52506,7 +52441,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.55905690009335263</v>
       </c>
@@ -52526,7 +52461,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.56658312867422123</v>
       </c>
@@ -52546,7 +52481,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.57488252522595329</v>
       </c>
@@ -52566,7 +52501,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.5896125779668151</v>
       </c>
@@ -52586,7 +52521,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.59615072804863534</v>
       </c>
@@ -52606,7 +52541,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.59933930786528788</v>
       </c>
@@ -52626,7 +52561,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.60114209395447904</v>
       </c>
@@ -52646,7 +52581,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.60470137037403593</v>
       </c>
@@ -52666,7 +52601,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.6116214563070117</v>
       </c>
@@ -52686,7 +52621,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.61415489381274313</v>
       </c>
@@ -52706,7 +52641,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.61582434776801231</v>
       </c>
@@ -52726,7 +52661,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.61666552956800236</v>
       </c>
@@ -52746,7 +52681,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.60428862034965369</v>
       </c>
@@ -52766,7 +52701,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.31611641306455429</v>
       </c>
@@ -52786,7 +52721,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.32135212723524031</v>
       </c>
@@ -52806,7 +52741,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.32649420160570913</v>
       </c>
@@ -52826,7 +52761,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.3378000764709348</v>
       </c>
@@ -52846,7 +52781,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.34512612285390565</v>
       </c>
@@ -52866,7 +52801,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.35111761664641056</v>
       </c>
@@ -52886,7 +52821,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.35465603914801597</v>
       </c>
@@ -52906,7 +52841,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.36046503932901586</v>
       </c>
@@ -52926,7 +52861,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.37177730337487552</v>
       </c>
@@ -52946,7 +52881,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.38268687072578866</v>
       </c>
@@ -52966,7 +52901,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.38695840274244747</v>
       </c>
@@ -52986,7 +52921,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.29719123758048771</v>
       </c>
@@ -53006,7 +52941,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.29719737088983367</v>
       </c>
@@ -53026,7 +52961,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.38268687072578866</v>
       </c>
@@ -53046,7 +52981,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.38695840274244747</v>
       </c>
@@ -53066,7 +53001,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.29719123758048771</v>
       </c>
@@ -53086,7 +53021,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.29719737088983367</v>
       </c>
@@ -53106,7 +53041,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.59065699999999999</v>
       </c>
@@ -53120,7 +53055,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.59315600000000002</v>
       </c>
@@ -53134,7 +53069,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.59743500000000005</v>
       </c>
@@ -53148,7 +53083,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.60075699999999999</v>
       </c>
@@ -53162,7 +53097,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G95">
         <v>0.55818500000000004</v>
       </c>
@@ -53170,7 +53105,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G96">
         <v>0.56066800000000006</v>
       </c>
@@ -53178,7 +53113,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G97">
         <v>0.563168</v>
       </c>
@@ -53186,7 +53121,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G98">
         <v>0.56568700000000005</v>
       </c>
@@ -53194,7 +53129,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G99">
         <v>0.56822300000000003</v>
       </c>
@@ -53202,7 +53137,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G100">
         <v>0.57077800000000001</v>
       </c>
@@ -53220,13 +53155,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA1C9C-9B9C-4B22-9640-19860B1C7174}">
   <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:H211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -53237,7 +53172,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -53257,7 +53192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8.8704358092670042E-4</v>
       </c>
@@ -53277,7 +53212,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.2823699760963937E-2</v>
       </c>
@@ -53297,7 +53232,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5.1487057077629544E-2</v>
       </c>
@@ -53317,7 +53252,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.3694219407179337E-2</v>
       </c>
@@ -53337,7 +53272,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9.7188616953497134E-2</v>
       </c>
@@ -53357,7 +53292,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.11732523240541651</v>
       </c>
@@ -53377,7 +53312,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.13236466540735028</v>
       </c>
@@ -53397,7 +53332,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.14485746444575009</v>
       </c>
@@ -53417,7 +53352,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.15898082121206311</v>
       </c>
@@ -53437,7 +53372,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.16290592219806463</v>
       </c>
@@ -53457,7 +53392,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.17644412023370443</v>
       </c>
@@ -53477,7 +53412,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.17646517446428464</v>
       </c>
@@ -53497,7 +53432,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.18217299613766277</v>
       </c>
@@ -53517,7 +53452,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.18964516789036034</v>
       </c>
@@ -53537,7 +53472,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.18967370615274448</v>
       </c>
@@ -53557,7 +53492,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.19701406222476264</v>
       </c>
@@ -53577,7 +53512,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.20244548173481314</v>
       </c>
@@ -53597,7 +53532,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.20603100948424874</v>
       </c>
@@ -53617,7 +53552,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.21308698873861018</v>
       </c>
@@ -53637,7 +53572,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.21485535269763475</v>
       </c>
@@ -53657,7 +53592,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.22345575047730468</v>
       </c>
@@ -53677,7 +53612,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.2335219918276184</v>
       </c>
@@ -53697,7 +53632,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.24171330108940928</v>
       </c>
@@ -53717,7 +53652,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.25289133527119789</v>
       </c>
@@ -53737,7 +53672,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.25913546382995689</v>
       </c>
@@ -53757,7 +53692,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.27575875212273737</v>
       </c>
@@ -53777,7 +53712,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.28161517647408635</v>
       </c>
@@ -53797,7 +53732,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.28880934438583261</v>
       </c>
@@ -53817,7 +53752,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.30001043030815761</v>
       </c>
@@ -53837,7 +53772,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.3135369044946853</v>
       </c>
@@ -53857,7 +53792,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.32139787543606363</v>
       </c>
@@ -53877,7 +53812,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.3290920249146787</v>
       </c>
@@ -53897,7 +53832,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.33161441676718256</v>
       </c>
@@ -53917,7 +53852,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.34030617329796392</v>
       </c>
@@ -53937,7 +53872,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.35233351607035707</v>
       </c>
@@ -53957,7 +53892,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.36164113187157093</v>
       </c>
@@ -53977,7 +53912,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.37290975325192577</v>
       </c>
@@ -53997,7 +53932,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.38378272219593601</v>
       </c>
@@ -54017,7 +53952,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.38697940189894225</v>
       </c>
@@ -54037,7 +53972,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.39222342832777096</v>
       </c>
@@ -54057,7 +53992,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.39431240293267006</v>
       </c>
@@ -54077,7 +54012,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.39640063907581174</v>
       </c>
@@ -54097,7 +54032,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.40451249389970351</v>
       </c>
@@ -54117,7 +54052,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.41144084931813785</v>
       </c>
@@ -54137,7 +54072,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.42199919855021301</v>
       </c>
@@ -54157,7 +54092,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.4303599743001808</v>
       </c>
@@ -54177,7 +54112,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.44288537412691403</v>
       </c>
@@ -54197,7 +54132,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.44978991357420123</v>
       </c>
@@ -54217,7 +54152,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.46471814618777785</v>
       </c>
@@ -54237,7 +54172,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.47267445286700427</v>
       </c>
@@ -54257,7 +54192,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.48491247669474113</v>
       </c>
@@ -54277,7 +54212,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.49515634272531867</v>
       </c>
@@ -54297,7 +54232,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.50775399516922415</v>
       </c>
@@ -54317,7 +54252,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.51447725920805065</v>
       </c>
@@ -54337,7 +54272,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.5197239207703499</v>
       </c>
@@ -54357,7 +54292,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.54260053180260925</v>
       </c>
@@ -54377,7 +54312,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.55126091781629694</v>
       </c>
@@ -54397,7 +54332,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.55351491502276229</v>
       </c>
@@ -54417,7 +54352,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.55905690009335263</v>
       </c>
@@ -54437,7 +54372,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.56658312867422123</v>
       </c>
@@ -54457,7 +54392,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.57488252522595329</v>
       </c>
@@ -54477,7 +54412,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.5896125779668151</v>
       </c>
@@ -54497,7 +54432,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.59615072804863534</v>
       </c>
@@ -54517,7 +54452,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.59933930786528788</v>
       </c>
@@ -54537,7 +54472,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.60114209395447904</v>
       </c>
@@ -54557,7 +54492,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.60470137037403593</v>
       </c>
@@ -54577,7 +54512,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.6116214563070117</v>
       </c>
@@ -54597,7 +54532,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.61415489381274313</v>
       </c>
@@ -54617,7 +54552,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.61582434776801231</v>
       </c>
@@ -54637,7 +54572,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.61666552956800236</v>
       </c>
@@ -54657,7 +54592,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.60428862034965369</v>
       </c>
@@ -54677,7 +54612,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.31611641306455429</v>
       </c>
@@ -54697,7 +54632,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.32135212723524031</v>
       </c>
@@ -54717,7 +54652,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.32649420160570913</v>
       </c>
@@ -54737,7 +54672,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.3378000764709348</v>
       </c>
@@ -54757,7 +54692,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.34512612285390565</v>
       </c>
@@ -54777,7 +54712,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.35111761664641056</v>
       </c>
@@ -54791,7 +54726,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.35465603914801597</v>
       </c>
@@ -54805,7 +54740,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.36046503932901586</v>
       </c>
@@ -54819,7 +54754,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.37177730337487552</v>
       </c>
@@ -54839,7 +54774,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.38268687072578866</v>
       </c>
@@ -54859,7 +54794,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.38695840274244747</v>
       </c>
@@ -54879,7 +54814,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.29719123758048771</v>
       </c>
@@ -54899,7 +54834,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.29719737088983367</v>
       </c>
@@ -54919,7 +54854,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.38268687072578866</v>
       </c>
@@ -54939,7 +54874,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.38695840274244747</v>
       </c>
@@ -54959,7 +54894,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.29719123758048771</v>
       </c>
@@ -54979,7 +54914,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.29719737088983367</v>
       </c>
@@ -54999,7 +54934,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.24337600000000001</v>
       </c>
@@ -55013,7 +54948,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.245698</v>
       </c>
@@ -55027,7 +54962,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.24807999999999999</v>
       </c>
@@ -55041,7 +54976,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.25052200000000002</v>
       </c>
@@ -55055,7 +54990,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.253023</v>
       </c>
@@ -55069,7 +55004,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.25558500000000001</v>
       </c>
@@ -55083,7 +55018,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.25820599999999999</v>
       </c>
@@ -55097,7 +55032,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.25930500000000001</v>
       </c>
@@ -55111,7 +55046,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.26375900000000002</v>
       </c>
@@ -55125,7 +55060,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.26820100000000002</v>
       </c>
@@ -55139,7 +55074,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.27263100000000001</v>
       </c>
@@ -55153,7 +55088,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>0.27704899999999999</v>
       </c>
@@ -55167,7 +55102,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.28145500000000001</v>
       </c>
@@ -55181,7 +55116,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.28584900000000002</v>
       </c>
@@ -55195,7 +55130,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.29022999999999999</v>
       </c>
@@ -55209,7 +55144,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.29459999999999997</v>
       </c>
@@ -55223,7 +55158,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.298958</v>
       </c>
@@ -55237,7 +55172,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.30330400000000002</v>
       </c>
@@ -55251,7 +55186,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.30763800000000002</v>
       </c>
@@ -55265,7 +55200,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.31196000000000002</v>
       </c>
@@ -55279,7 +55214,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.31627</v>
       </c>
@@ -55293,7 +55228,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.32056800000000002</v>
       </c>
@@ -55307,7 +55242,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.32485399999999998</v>
       </c>
@@ -55321,7 +55256,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.32912799999999998</v>
       </c>
@@ -55335,7 +55270,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.33339000000000002</v>
       </c>
@@ -55349,7 +55284,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.33764</v>
       </c>
@@ -55363,7 +55298,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.34187800000000002</v>
       </c>
@@ -55377,7 +55312,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.34610400000000002</v>
       </c>
@@ -55391,7 +55326,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.35031800000000002</v>
       </c>
@@ -55405,7 +55340,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.35452</v>
       </c>
@@ -55419,7 +55354,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="121" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.35870999999999997</v>
       </c>
@@ -55433,7 +55368,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.36513099999999998</v>
       </c>
@@ -55447,7 +55382,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.378251</v>
       </c>
@@ -55461,7 +55396,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G124">
         <v>0.40595300000000001</v>
       </c>
@@ -55469,7 +55404,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G125">
         <v>0.40676200000000001</v>
       </c>
@@ -55477,7 +55412,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G126">
         <v>0.40758899999999998</v>
       </c>
@@ -55485,7 +55420,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G127">
         <v>0.40843400000000002</v>
       </c>
@@ -55493,7 +55428,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G128">
         <v>0.41292899999999999</v>
       </c>
@@ -55501,7 +55436,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G129">
         <v>0.41388200000000003</v>
       </c>
@@ -55509,7 +55444,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G130">
         <v>0.41485300000000003</v>
       </c>
@@ -55517,7 +55452,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G131">
         <v>0.41584199999999999</v>
       </c>
@@ -55525,7 +55460,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G132">
         <v>0.41684900000000003</v>
       </c>
@@ -55533,7 +55468,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G133">
         <v>0.41890899999999998</v>
       </c>
@@ -55541,7 +55476,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G134">
         <v>0.41997800000000002</v>
       </c>
@@ -55549,7 +55484,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G135">
         <v>0.42105700000000001</v>
       </c>
@@ -55557,7 +55492,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G136">
         <v>0.42326799999999998</v>
       </c>
@@ -55565,7 +55500,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G137">
         <v>0.42526599999999998</v>
       </c>
@@ -55573,7 +55508,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G138">
         <v>0.42672100000000002</v>
       </c>
@@ -55581,7 +55516,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G139">
         <v>0.42790800000000001</v>
       </c>
@@ -55589,7 +55524,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G140">
         <v>0.430336</v>
       </c>
@@ -55597,7 +55532,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G141">
         <v>0.43157699999999999</v>
       </c>
@@ -55605,7 +55540,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G142">
         <v>0.43411300000000003</v>
       </c>
@@ -55613,7 +55548,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G143">
         <v>0.43540800000000002</v>
       </c>
@@ -55621,7 +55556,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G144">
         <v>0.43672100000000003</v>
       </c>
@@ -55629,7 +55564,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="145" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G145">
         <v>0.438052</v>
       </c>
@@ -55637,7 +55572,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="146" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G146">
         <v>0.44215300000000002</v>
       </c>
@@ -55645,7 +55580,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="147" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D147">
         <v>0.43516100000000002</v>
       </c>
@@ -55659,7 +55594,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="148" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D148">
         <v>0.43758799999999998</v>
       </c>
@@ -55673,7 +55608,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="149" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D149">
         <v>0.44017699999999998</v>
       </c>
@@ -55687,7 +55622,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D150">
         <v>0.44107600000000002</v>
       </c>
@@ -55701,7 +55636,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.44199300000000002</v>
       </c>
@@ -55715,7 +55650,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="152" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.44292799999999999</v>
       </c>
@@ -55729,7 +55664,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>0.44684800000000002</v>
       </c>
@@ -55743,7 +55678,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D154">
         <v>0.44787300000000002</v>
       </c>
@@ -55757,7 +55692,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="155" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D155">
         <v>0.44891599999999998</v>
       </c>
@@ -55771,7 +55706,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="156" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D156">
         <v>0.453065</v>
       </c>
@@ -55785,7 +55720,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="157" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D157">
         <v>0.453268</v>
       </c>
@@ -55799,7 +55734,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="158" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D158">
         <v>0.45555200000000001</v>
       </c>
@@ -55813,7 +55748,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="159" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D159">
         <v>0.45782400000000001</v>
       </c>
@@ -55827,7 +55762,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="160" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D160">
         <v>0.46033499999999999</v>
       </c>
@@ -55841,7 +55776,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D161">
         <v>0.462835</v>
       </c>
@@ -55855,7 +55790,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="162" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D162">
         <v>0.46411200000000002</v>
       </c>
@@ -55869,7 +55804,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="163" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D163">
         <v>0.46540700000000002</v>
       </c>
@@ -55883,7 +55818,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="164" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D164">
         <v>0.46672000000000002</v>
       </c>
@@ -55897,7 +55832,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="165" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D165">
         <v>0.47215200000000002</v>
       </c>
@@ -55911,7 +55846,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="166" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D166">
         <v>0.47641499999999998</v>
       </c>
@@ -55925,7 +55860,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="167" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D167">
         <v>0.47787200000000002</v>
       </c>
@@ -55939,7 +55874,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="168" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D168">
         <v>0.47934700000000002</v>
       </c>
@@ -55953,7 +55888,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="169" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D169">
         <v>0.48083999999999999</v>
       </c>
@@ -55967,7 +55902,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="170" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D170">
         <v>0.48235099999999997</v>
       </c>
@@ -55981,7 +55916,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="171" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D171">
         <v>0.48299500000000001</v>
       </c>
@@ -55995,7 +55930,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="172" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D172">
         <v>0.48542600000000002</v>
       </c>
@@ -56009,7 +55944,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="173" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D173">
         <v>0.48857400000000001</v>
       </c>
@@ -56023,7 +55958,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="174" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D174">
         <v>0.49017500000000003</v>
       </c>
@@ -56037,7 +55972,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="175" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D175">
         <v>0.49179400000000001</v>
       </c>
@@ -56051,7 +55986,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="176" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D176">
         <v>0.53604700000000005</v>
       </c>
@@ -56065,7 +56000,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="177" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D177">
         <v>0.58571200000000001</v>
       </c>
@@ -56079,7 +56014,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="178" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D178">
         <v>0.58817600000000003</v>
       </c>
@@ -56093,7 +56028,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="179" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D179">
         <v>0.59065699999999999</v>
       </c>
@@ -56107,7 +56042,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="180" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D180">
         <v>0.59315600000000002</v>
       </c>
@@ -56121,7 +56056,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="181" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D181">
         <v>0.59743500000000005</v>
       </c>
@@ -56135,7 +56070,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="182" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D182">
         <v>0.61902500000000005</v>
       </c>
@@ -56149,7 +56084,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="183" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D183">
         <v>0.62017299999999997</v>
       </c>
@@ -56163,7 +56098,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="184" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D184">
         <v>0.62041900000000005</v>
       </c>
@@ -56177,7 +56112,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="185" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D185">
         <v>0.621479</v>
       </c>
@@ -56191,7 +56126,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="186" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D186">
         <v>0.62171200000000004</v>
       </c>
@@ -56205,7 +56140,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="187" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D187">
         <v>0.62316000000000005</v>
       </c>
@@ -56219,7 +56154,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="188" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D188">
         <v>0.62457499999999999</v>
       </c>
@@ -56233,7 +56168,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="189" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D189">
         <v>0.62710500000000002</v>
       </c>
@@ -56247,7 +56182,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="190" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G190">
         <v>0.54604200000000003</v>
       </c>
@@ -56255,7 +56190,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="191" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G191">
         <v>0.54843500000000001</v>
       </c>
@@ -56263,7 +56198,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="192" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G192">
         <v>0.55084500000000003</v>
       </c>
@@ -56271,7 +56206,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G193">
         <v>0.55327400000000004</v>
       </c>
@@ -56279,7 +56214,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G194">
         <v>0.55818500000000004</v>
       </c>
@@ -56287,7 +56222,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G195">
         <v>0.56066800000000006</v>
       </c>
@@ -56295,7 +56230,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G196">
         <v>0.563168</v>
       </c>
@@ -56303,7 +56238,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G197">
         <v>0.56568700000000005</v>
       </c>
@@ -56311,7 +56246,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G198">
         <v>0.56822300000000003</v>
       </c>
@@ -56319,7 +56254,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G199">
         <v>0.57077800000000001</v>
       </c>
@@ -56327,7 +56262,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G200">
         <v>0.60461500000000001</v>
       </c>
@@ -56335,7 +56270,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G201">
         <v>0.60537200000000002</v>
       </c>
@@ -56343,7 +56278,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G202">
         <v>0.60874799999999996</v>
       </c>
@@ -56351,7 +56286,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G203">
         <v>0.61902500000000005</v>
       </c>
@@ -56359,7 +56294,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G204">
         <v>0.61792100000000005</v>
       </c>
@@ -56367,7 +56302,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G205">
         <v>0.62017299999999997</v>
       </c>
@@ -56375,7 +56310,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G206">
         <v>0.62041900000000005</v>
       </c>
@@ -56383,7 +56318,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G207">
         <v>0.62171200000000004</v>
       </c>
@@ -56391,7 +56326,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G208">
         <v>0.621479</v>
       </c>
@@ -56399,7 +56334,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G209">
         <v>0.62316000000000005</v>
       </c>
@@ -56407,7 +56342,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G210">
         <v>0.62457499999999999</v>
       </c>
@@ -56415,7 +56350,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G211">
         <v>0.62710500000000002</v>
       </c>
@@ -56442,6 +56377,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -56670,14 +56613,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF512C7-F629-44C7-ACF3-334FC72973D0}">
   <ds:schemaRefs>
@@ -56687,6 +56622,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43649138-A2D4-479B-A33F-938C4CC7EA61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E4939B2-3627-4E93-BC4B-BD461E5F2223}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56703,21 +56655,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43649138-A2D4-479B-A33F-938C4CC7EA61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>